--- a/docs/StructureDefinition-CareConnect-OxygenSaturation-Observation-1.xlsx
+++ b/docs/StructureDefinition-CareConnect-OxygenSaturation-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6626" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6626" uniqueCount="663">
   <si>
     <t>Path</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -4797,7 +4800,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4839,10 +4842,10 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4965,7 +4968,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5082,7 +5085,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5105,19 +5108,19 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -5166,7 +5169,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -5187,10 +5190,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -5201,7 +5204,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5316,7 +5319,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5433,7 +5436,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5459,23 +5462,23 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -5517,7 +5520,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5538,10 +5541,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5552,7 +5555,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5578,13 +5581,13 @@
         <v>120</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5634,7 +5637,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5655,10 +5658,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5669,7 +5672,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5695,21 +5698,21 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5751,7 +5754,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5772,10 +5775,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5786,7 +5789,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5812,21 +5815,21 @@
         <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5868,7 +5871,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5889,10 +5892,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5926,19 +5929,19 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5987,7 +5990,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -6008,10 +6011,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -6022,7 +6025,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6048,16 +6051,16 @@
         <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -6106,7 +6109,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -6127,10 +6130,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -6141,11 +6144,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6167,14 +6170,14 @@
         <v>142</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -6202,10 +6205,10 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -6223,7 +6226,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>56</v>
@@ -6238,27 +6241,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6373,7 +6376,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6490,7 +6493,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6513,19 +6516,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6562,7 +6565,7 @@
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
@@ -6572,7 +6575,7 @@
         <v>129</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6593,10 +6596,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6607,10 +6610,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>45</v>
@@ -6632,19 +6635,19 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6672,10 +6675,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6693,7 +6696,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6714,10 +6717,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6843,7 +6846,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6960,7 +6963,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6986,23 +6989,23 @@
         <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -7044,7 +7047,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -7065,10 +7068,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -7079,7 +7082,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7105,13 +7108,13 @@
         <v>120</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7161,7 +7164,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -7182,10 +7185,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -7196,7 +7199,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7222,21 +7225,21 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7278,7 +7281,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7299,10 +7302,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7313,7 +7316,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7339,14 +7342,14 @@
         <v>120</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7395,7 +7398,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7416,10 +7419,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7453,19 +7456,19 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7514,7 +7517,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7535,10 +7538,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7549,10 +7552,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
@@ -7574,19 +7577,19 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7635,7 +7638,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7656,10 +7659,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7670,7 +7673,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7785,7 +7788,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7811,10 +7814,10 @@
         <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7900,10 +7903,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7925,13 +7928,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8017,7 +8020,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8043,23 +8046,23 @@
         <v>69</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -8101,7 +8104,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8122,10 +8125,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -8136,7 +8139,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8162,13 +8165,13 @@
         <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8218,7 +8221,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8239,10 +8242,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8279,21 +8282,21 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8335,7 +8338,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8356,10 +8359,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8396,21 +8399,21 @@
         <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>45</v>
@@ -8452,7 +8455,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8473,10 +8476,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8510,19 +8513,19 @@
         <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8571,7 +8574,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8592,10 +8595,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8632,16 +8635,16 @@
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8690,7 +8693,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8711,10 +8714,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8725,7 +8728,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8748,19 +8751,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8809,7 +8812,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8824,19 +8827,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8844,11 +8847,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8867,19 +8870,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8928,7 +8931,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8943,19 +8946,19 @@
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8963,11 +8966,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8986,19 +8989,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9047,7 +9050,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9062,19 +9065,19 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9082,7 +9085,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9105,16 +9108,16 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9164,7 +9167,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9185,13 +9188,13 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9222,17 +9225,17 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9281,7 +9284,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9296,19 +9299,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9316,7 +9319,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9339,19 +9342,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9388,17 +9391,17 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9407,36 +9410,36 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9458,19 +9461,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9498,10 +9501,10 @@
         <v>136</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9519,7 +9522,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9528,33 +9531,33 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9669,7 +9672,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9786,7 +9789,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9809,19 +9812,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9870,7 +9873,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9891,10 +9894,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9905,7 +9908,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9931,22 +9934,22 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
@@ -9970,10 +9973,10 @@
         <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9991,7 +9994,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10012,10 +10015,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10026,7 +10029,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10052,14 +10055,14 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10108,7 +10111,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10129,10 +10132,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10143,7 +10146,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10169,21 +10172,21 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10225,7 +10228,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10234,7 +10237,7 @@
         <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -10246,10 +10249,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10260,7 +10263,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10286,23 +10289,23 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>45</v>
@@ -10344,7 +10347,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10365,10 +10368,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10379,7 +10382,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10405,16 +10408,16 @@
         <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10442,10 +10445,10 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10463,7 +10466,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10472,13 +10475,13 @@
         <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>45</v>
@@ -10487,7 +10490,7 @@
         <v>99</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10613,7 +10616,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10730,7 +10733,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10753,19 +10756,19 @@
         <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10814,7 +10817,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10835,10 +10838,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10849,7 +10852,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10964,7 +10967,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11081,7 +11084,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11107,16 +11110,16 @@
         <v>69</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -11165,7 +11168,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11186,10 +11189,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11200,7 +11203,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11226,13 +11229,13 @@
         <v>120</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11282,7 +11285,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11303,10 +11306,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11317,7 +11320,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11343,14 +11346,14 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -11399,7 +11402,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11420,10 +11423,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11434,7 +11437,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11460,14 +11463,14 @@
         <v>120</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11516,7 +11519,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11537,10 +11540,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11551,7 +11554,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11574,19 +11577,19 @@
         <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11635,7 +11638,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11656,10 +11659,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11696,16 +11699,16 @@
         <v>120</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11754,7 +11757,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11775,10 +11778,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11789,11 +11792,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11815,14 +11818,14 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11850,10 +11853,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11871,7 +11874,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11889,24 +11892,24 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11932,14 +11935,14 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11988,7 +11991,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12003,16 +12006,16 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12023,7 +12026,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12049,13 +12052,13 @@
         <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12081,13 +12084,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12105,7 +12108,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12123,24 +12126,24 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12255,7 +12258,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12372,7 +12375,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12395,19 +12398,19 @@
         <v>57</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12444,7 +12447,7 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
@@ -12454,7 +12457,7 @@
         <v>129</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12475,10 +12478,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12489,10 +12492,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>45</v>
@@ -12514,19 +12517,19 @@
         <v>57</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12551,13 +12554,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12575,7 +12578,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12596,10 +12599,10 @@
         <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12610,7 +12613,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12725,7 +12728,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12751,10 +12754,10 @@
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12840,10 +12843,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>45</v>
@@ -12865,13 +12868,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12983,23 +12986,23 @@
         <v>69</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13041,7 +13044,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13062,10 +13065,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13076,7 +13079,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13102,13 +13105,13 @@
         <v>120</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13158,7 +13161,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13179,10 +13182,10 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -13193,7 +13196,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13219,14 +13222,14 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13275,7 +13278,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
@@ -13296,10 +13299,10 @@
         <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13310,7 +13313,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13336,14 +13339,14 @@
         <v>120</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13392,7 +13395,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13413,10 +13416,10 @@
         <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13427,7 +13430,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13450,19 +13453,19 @@
         <v>57</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -13511,7 +13514,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13532,10 +13535,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13546,7 +13549,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13572,16 +13575,16 @@
         <v>120</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13630,7 +13633,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13651,10 +13654,10 @@
         <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -13665,7 +13668,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13691,16 +13694,16 @@
         <v>142</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13725,13 +13728,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13749,7 +13752,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13770,10 +13773,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13784,7 +13787,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13899,7 +13902,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14016,7 +14019,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14039,19 +14042,19 @@
         <v>57</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
@@ -14088,7 +14091,7 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
@@ -14098,7 +14101,7 @@
         <v>129</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
@@ -14119,10 +14122,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -14133,10 +14136,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>45</v>
@@ -14158,19 +14161,19 @@
         <v>57</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14195,13 +14198,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14219,7 +14222,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14240,10 +14243,10 @@
         <v>45</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14254,7 +14257,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14369,7 +14372,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14395,10 +14398,10 @@
         <v>102</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14484,10 +14487,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>45</v>
@@ -14509,13 +14512,13 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14601,7 +14604,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14627,23 +14630,23 @@
         <v>69</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -14685,7 +14688,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14706,10 +14709,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14720,7 +14723,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14746,13 +14749,13 @@
         <v>120</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14802,7 +14805,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14823,10 +14826,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14837,7 +14840,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14863,14 +14866,14 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14919,7 +14922,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14940,10 +14943,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14954,7 +14957,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14980,14 +14983,14 @@
         <v>120</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -15036,7 +15039,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -15057,10 +15060,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -15071,7 +15074,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15094,19 +15097,19 @@
         <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15155,7 +15158,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15176,10 +15179,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -15190,7 +15193,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15216,16 +15219,16 @@
         <v>120</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15274,7 +15277,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15295,10 +15298,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15309,7 +15312,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15332,16 +15335,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15391,7 +15394,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15409,24 +15412,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15449,16 +15452,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15508,7 +15511,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15526,24 +15529,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15566,19 +15569,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15627,7 +15630,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15639,7 +15642,7 @@
         <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>45</v>
@@ -15648,10 +15651,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15662,7 +15665,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15777,7 +15780,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15894,11 +15897,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15923,7 +15926,7 @@
         <v>108</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>105</v>
@@ -15976,7 +15979,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16011,7 +16014,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16034,13 +16037,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16091,7 +16094,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16100,7 +16103,7 @@
         <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>45</v>
@@ -16112,10 +16115,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16126,7 +16129,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16149,13 +16152,13 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16206,7 +16209,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16215,7 +16218,7 @@
         <v>56</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>45</v>
@@ -16227,10 +16230,10 @@
         <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16241,7 +16244,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16267,16 +16270,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16304,10 +16307,10 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16325,7 +16328,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16343,13 +16346,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16360,7 +16363,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16386,16 +16389,16 @@
         <v>142</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16420,13 +16423,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16444,7 +16447,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16462,13 +16465,13 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16479,7 +16482,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16502,17 +16505,17 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16561,7 +16564,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16585,7 +16588,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16596,7 +16599,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16622,10 +16625,10 @@
         <v>120</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16676,7 +16679,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16697,10 +16700,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16711,7 +16714,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16734,19 +16737,19 @@
         <v>57</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16795,7 +16798,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16807,7 +16810,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16816,10 +16819,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16830,7 +16833,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16945,7 +16948,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17062,11 +17065,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17091,7 +17094,7 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>105</v>
@@ -17144,7 +17147,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17179,7 +17182,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17205,23 +17208,23 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -17242,10 +17245,10 @@
         <v>136</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17263,7 +17266,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17287,7 +17290,7 @@
         <v>99</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17298,7 +17301,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17321,13 +17324,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17378,7 +17381,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>56</v>
@@ -17402,7 +17405,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17413,7 +17416,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17436,19 +17439,19 @@
         <v>57</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17497,7 +17500,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17509,7 +17512,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17518,10 +17521,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17532,7 +17535,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17647,7 +17650,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17764,11 +17767,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17793,7 +17796,7 @@
         <v>108</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>105</v>
@@ -17846,7 +17849,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17881,7 +17884,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17907,14 +17910,14 @@
         <v>142</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
@@ -17943,7 +17946,7 @@
       </c>
       <c r="X134" s="2"/>
       <c r="Y134" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>45</v>
@@ -17961,7 +17964,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>56</v>
@@ -17979,16 +17982,16 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>45</v>
@@ -17996,7 +17999,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18111,7 +18114,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18228,7 +18231,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18251,19 +18254,19 @@
         <v>57</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18300,7 +18303,7 @@
         <v>45</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB137" s="2"/>
       <c r="AC137" t="s" s="2">
@@ -18310,7 +18313,7 @@
         <v>129</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -18331,10 +18334,10 @@
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -18345,10 +18348,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>45</v>
@@ -18370,19 +18373,19 @@
         <v>57</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
@@ -18410,10 +18413,10 @@
         <v>79</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>45</v>
@@ -18431,7 +18434,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18452,10 +18455,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -18466,7 +18469,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18581,7 +18584,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18698,7 +18701,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18724,23 +18727,23 @@
         <v>69</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R141" t="s" s="2">
         <v>45</v>
@@ -18782,7 +18785,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18803,10 +18806,10 @@
         <v>45</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>45</v>
@@ -18817,7 +18820,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18843,13 +18846,13 @@
         <v>120</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18899,7 +18902,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18920,10 +18923,10 @@
         <v>45</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>45</v>
@@ -18934,7 +18937,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18960,14 +18963,14 @@
         <v>75</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>45</v>
@@ -19016,7 +19019,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
@@ -19037,10 +19040,10 @@
         <v>45</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>45</v>
@@ -19051,7 +19054,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19077,14 +19080,14 @@
         <v>120</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>45</v>
@@ -19133,7 +19136,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19154,10 +19157,10 @@
         <v>45</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>45</v>
@@ -19168,7 +19171,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19191,19 +19194,19 @@
         <v>57</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>45</v>
@@ -19252,7 +19255,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>43</v>
@@ -19273,10 +19276,10 @@
         <v>45</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>45</v>
@@ -19287,10 +19290,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>45</v>
@@ -19312,19 +19315,19 @@
         <v>57</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>45</v>
@@ -19373,7 +19376,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>43</v>
@@ -19394,10 +19397,10 @@
         <v>45</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>45</v>
@@ -19408,7 +19411,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19523,7 +19526,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19549,10 +19552,10 @@
         <v>102</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19638,10 +19641,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s" s="2">
         <v>45</v>
@@ -19663,13 +19666,13 @@
         <v>45</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19755,7 +19758,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19781,23 +19784,23 @@
         <v>69</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R150" t="s" s="2">
         <v>45</v>
@@ -19839,7 +19842,7 @@
         <v>45</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>43</v>
@@ -19860,10 +19863,10 @@
         <v>45</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>45</v>
@@ -19874,7 +19877,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19900,13 +19903,13 @@
         <v>120</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19956,7 +19959,7 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>43</v>
@@ -19977,10 +19980,10 @@
         <v>45</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>45</v>
@@ -19991,7 +19994,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20017,14 +20020,14 @@
         <v>75</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>45</v>
@@ -20073,7 +20076,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -20094,10 +20097,10 @@
         <v>45</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>45</v>
@@ -20108,7 +20111,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20134,14 +20137,14 @@
         <v>120</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>45</v>
@@ -20190,7 +20193,7 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>43</v>
@@ -20211,10 +20214,10 @@
         <v>45</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>45</v>
@@ -20225,7 +20228,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20248,19 +20251,19 @@
         <v>57</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>45</v>
@@ -20309,7 +20312,7 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
@@ -20330,10 +20333,10 @@
         <v>45</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>45</v>
@@ -20344,7 +20347,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20370,16 +20373,16 @@
         <v>120</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>45</v>
@@ -20428,7 +20431,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -20449,10 +20452,10 @@
         <v>45</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -20463,7 +20466,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20486,19 +20489,19 @@
         <v>57</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>45</v>
@@ -20535,17 +20538,17 @@
         <v>45</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB156" s="2"/>
       <c r="AC156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
@@ -20563,27 +20566,27 @@
         <v>45</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>45</v>
@@ -20605,19 +20608,19 @@
         <v>57</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>45</v>
@@ -20645,10 +20648,10 @@
         <v>136</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>45</v>
@@ -20666,7 +20669,7 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
@@ -20684,24 +20687,24 @@
         <v>45</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20816,7 +20819,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20933,7 +20936,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20956,19 +20959,19 @@
         <v>57</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>45</v>
@@ -21017,7 +21020,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -21038,10 +21041,10 @@
         <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
@@ -21052,7 +21055,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21078,22 +21081,22 @@
         <v>75</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P161" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>45</v>
@@ -21117,10 +21120,10 @@
         <v>136</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>45</v>
@@ -21138,7 +21141,7 @@
         <v>45</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>43</v>
@@ -21159,10 +21162,10 @@
         <v>45</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>45</v>
@@ -21173,7 +21176,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21199,14 +21202,14 @@
         <v>120</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
@@ -21255,7 +21258,7 @@
         <v>45</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>43</v>
@@ -21276,10 +21279,10 @@
         <v>45</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>45</v>
@@ -21290,7 +21293,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21316,21 +21319,21 @@
         <v>69</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R163" t="s" s="2">
         <v>45</v>
@@ -21372,7 +21375,7 @@
         <v>45</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>43</v>
@@ -21381,7 +21384,7 @@
         <v>56</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>45</v>
@@ -21393,10 +21396,10 @@
         <v>45</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>45</v>
@@ -21407,7 +21410,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21433,16 +21436,16 @@
         <v>75</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>45</v>
@@ -21470,10 +21473,10 @@
         <v>136</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>45</v>
@@ -21491,7 +21494,7 @@
         <v>45</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>43</v>
@@ -21512,10 +21515,10 @@
         <v>45</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>45</v>
@@ -21526,7 +21529,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21552,16 +21555,16 @@
         <v>142</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>45</v>
@@ -21589,10 +21592,10 @@
         <v>79</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>45</v>
@@ -21610,7 +21613,7 @@
         <v>45</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
@@ -21619,7 +21622,7 @@
         <v>56</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>45</v>
@@ -21634,7 +21637,7 @@
         <v>99</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>45</v>
@@ -21645,7 +21648,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21760,7 +21763,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21877,7 +21880,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21900,19 +21903,19 @@
         <v>57</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>45</v>
@@ -21961,7 +21964,7 @@
         <v>45</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>43</v>
@@ -21982,10 +21985,10 @@
         <v>45</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>45</v>
@@ -21996,7 +21999,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22111,7 +22114,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22228,7 +22231,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22254,16 +22257,16 @@
         <v>69</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>45</v>
@@ -22312,7 +22315,7 @@
         <v>45</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>43</v>
@@ -22333,10 +22336,10 @@
         <v>45</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>45</v>
@@ -22347,7 +22350,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22373,13 +22376,13 @@
         <v>120</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22429,7 +22432,7 @@
         <v>45</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>43</v>
@@ -22450,10 +22453,10 @@
         <v>45</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>45</v>
@@ -22464,7 +22467,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22490,14 +22493,14 @@
         <v>75</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>45</v>
@@ -22546,7 +22549,7 @@
         <v>45</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>43</v>
@@ -22567,10 +22570,10 @@
         <v>45</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>45</v>
@@ -22581,7 +22584,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22607,14 +22610,14 @@
         <v>120</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22663,7 +22666,7 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>43</v>
@@ -22684,10 +22687,10 @@
         <v>45</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>45</v>
@@ -22698,7 +22701,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22721,19 +22724,19 @@
         <v>57</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>45</v>
@@ -22782,7 +22785,7 @@
         <v>45</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>43</v>
@@ -22803,10 +22806,10 @@
         <v>45</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>45</v>
@@ -22817,7 +22820,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22843,16 +22846,16 @@
         <v>120</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>45</v>
@@ -22901,7 +22904,7 @@
         <v>45</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>43</v>
@@ -22922,10 +22925,10 @@
         <v>45</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>45</v>
@@ -22936,11 +22939,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22962,16 +22965,16 @@
         <v>142</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>45</v>
@@ -22999,10 +23002,10 @@
         <v>79</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>45</v>
@@ -23020,7 +23023,7 @@
         <v>45</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>43</v>
@@ -23038,24 +23041,24 @@
         <v>45</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23081,16 +23084,16 @@
         <v>45</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>45</v>
@@ -23139,7 +23142,7 @@
         <v>45</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>43</v>
@@ -23160,10 +23163,10 @@
         <v>45</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>45</v>
